--- a/target/classes/excel/img/richimg_output.xlsx
+++ b/target/classes/excel/img/richimg_output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A039A1-5B31-4C5E-85A1-53FB6A355573}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE65E81-73C3-4A52-B0CB-F754497CF5AB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="28800" windowHeight="15495" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="257">
   <si>
     <t>${col1}</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Path To Image Demo</t>
+  </si>
+  <si>
+    <t>Inserisce, nelle celle in cui trova il path di un'immagine, l'immagine effettiva.</t>
   </si>
   <si>
     <t/>
@@ -1165,7 +1168,7 @@
   <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,1380 +1183,1384 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true"/>
+    <row r="2" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="3" spans="1:3" ht="47.25" customHeight="true" x14ac:dyDescent="0.25">
       <c r="A3" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" ht="47.25" customHeight="true">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" ht="47.25" customHeight="true">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" ht="47.25" customHeight="true">
       <c r="A6" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" ht="47.25" customHeight="true">
       <c r="A7" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" ht="47.25" customHeight="true">
       <c r="A8" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" ht="47.25" customHeight="true">
       <c r="A9" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" ht="47.25" customHeight="true">
       <c r="A10" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" ht="47.25" customHeight="true">
       <c r="A11" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s" s="0">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" ht="47.25" customHeight="true">
       <c r="A12" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" ht="47.25" customHeight="true">
       <c r="A13" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" ht="47.25" customHeight="true">
       <c r="A14" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" ht="47.25" customHeight="true">
       <c r="A15" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" ht="47.25" customHeight="true">
       <c r="A16" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" ht="47.25" customHeight="true">
       <c r="A17" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" ht="47.25" customHeight="true">
       <c r="A18" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" ht="47.25" customHeight="true">
       <c r="A19" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" ht="47.25" customHeight="true">
       <c r="A20" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" ht="47.25" customHeight="true">
       <c r="A21" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" ht="47.25" customHeight="true">
       <c r="A22" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" ht="47.25" customHeight="true">
       <c r="A23" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" ht="47.25" customHeight="true">
       <c r="A24" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="s" s="0">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" ht="47.25" customHeight="true">
       <c r="A25" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" ht="47.25" customHeight="true">
       <c r="A26" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" ht="47.25" customHeight="true">
       <c r="A27" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" ht="47.25" customHeight="true">
       <c r="A28" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" ht="47.25" customHeight="true">
       <c r="A29" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" ht="47.25" customHeight="true">
       <c r="A30" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" ht="47.25" customHeight="true">
       <c r="A31" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s" s="0">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" ht="47.25" customHeight="true">
       <c r="A32" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" ht="47.25" customHeight="true">
       <c r="A33" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="s" s="0">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" ht="47.25" customHeight="true">
       <c r="A34" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s" s="0">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" ht="47.25" customHeight="true">
       <c r="A35" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" ht="47.25" customHeight="true">
       <c r="A36" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s" s="0">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" ht="47.25" customHeight="true">
       <c r="A37" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" ht="47.25" customHeight="true">
       <c r="A38" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39" ht="47.25" customHeight="true">
       <c r="A39" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="40" ht="47.25" customHeight="true">
       <c r="A40" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="41" ht="47.25" customHeight="true">
       <c r="A41" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="42" ht="47.25" customHeight="true">
       <c r="A42" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" ht="47.25" customHeight="true">
       <c r="A43" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" ht="47.25" customHeight="true">
       <c r="A44" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="45" ht="47.25" customHeight="true">
       <c r="A45" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="46" ht="47.25" customHeight="true">
       <c r="A46" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" ht="47.25" customHeight="true">
       <c r="A47" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="48" ht="47.25" customHeight="true">
       <c r="A48" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" ht="47.25" customHeight="true">
       <c r="A49" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C49" t="s" s="0">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" ht="47.25" customHeight="true">
       <c r="A50" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" ht="47.25" customHeight="true">
       <c r="A51" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52" ht="47.25" customHeight="true">
       <c r="A52" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="53" ht="47.25" customHeight="true">
       <c r="A53" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" ht="47.25" customHeight="true">
       <c r="A54" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="55" ht="47.25" customHeight="true">
       <c r="A55" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" ht="47.25" customHeight="true">
       <c r="A56" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" ht="47.25" customHeight="true">
       <c r="A57" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" ht="47.25" customHeight="true">
       <c r="A58" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="59" ht="47.25" customHeight="true">
       <c r="A59" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" ht="47.25" customHeight="true">
       <c r="A60" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" ht="47.25" customHeight="true">
       <c r="A61" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="62" ht="47.25" customHeight="true">
       <c r="A62" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" t="s" s="0">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" ht="47.25" customHeight="true">
       <c r="A63" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64" ht="47.25" customHeight="true">
       <c r="A64" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" ht="47.25" customHeight="true">
       <c r="A65" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" ht="47.25" customHeight="true">
       <c r="A66" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" ht="47.25" customHeight="true">
       <c r="A67" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" ht="47.25" customHeight="true">
       <c r="A68" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" ht="47.25" customHeight="true">
       <c r="A69" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" ht="47.25" customHeight="true">
       <c r="A70" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" ht="47.25" customHeight="true">
       <c r="A71" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" ht="47.25" customHeight="true">
       <c r="A72" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" ht="47.25" customHeight="true">
       <c r="A73" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" ht="47.25" customHeight="true">
       <c r="A74" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" ht="47.25" customHeight="true">
       <c r="A75" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="76" ht="47.25" customHeight="true">
       <c r="A76" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C76" t="s" s="0">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="77" ht="47.25" customHeight="true">
       <c r="A77" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" ht="47.25" customHeight="true">
       <c r="A78" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s" s="0">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" ht="47.25" customHeight="true">
       <c r="A79" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B79" t="s" s="0">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" ht="47.25" customHeight="true">
       <c r="A80" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B80" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="81" ht="47.25" customHeight="true">
       <c r="A81" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B81" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="82" ht="47.25" customHeight="true">
       <c r="A82" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B82" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="83" ht="47.25" customHeight="true">
       <c r="A83" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B83" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" ht="47.25" customHeight="true">
       <c r="A84" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B84" t="s" s="0">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="85" ht="47.25" customHeight="true">
       <c r="A85" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B85" t="s" s="0">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" ht="47.25" customHeight="true">
       <c r="A86" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s" s="0">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C86" t="s" s="0">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="87" ht="47.25" customHeight="true">
       <c r="A87" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s" s="0">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C87" t="s" s="0">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="88" ht="47.25" customHeight="true">
       <c r="A88" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s" s="0">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s" s="0">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="89" ht="47.25" customHeight="true">
       <c r="A89" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s" s="0">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C89" t="s" s="0">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="90" ht="47.25" customHeight="true">
       <c r="A90" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B90" t="s" s="0">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C90" t="s" s="0">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="91" ht="47.25" customHeight="true">
       <c r="A91" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s" s="0">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C91" t="s" s="0">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="92" ht="47.25" customHeight="true">
       <c r="A92" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s" s="0">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C92" t="s" s="0">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="93" ht="47.25" customHeight="true">
       <c r="A93" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B93" t="s" s="0">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C93" t="s" s="0">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="94" ht="47.25" customHeight="true">
       <c r="A94" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B94" t="s" s="0">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C94" t="s" s="0">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" ht="47.25" customHeight="true">
       <c r="A95" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B95" t="s" s="0">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C95" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="96" ht="47.25" customHeight="true">
       <c r="A96" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B96" t="s" s="0">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s" s="0">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="97" ht="47.25" customHeight="true">
       <c r="A97" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B97" t="s" s="0">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C97" t="s" s="0">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" ht="47.25" customHeight="true">
       <c r="A98" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B98" t="s" s="0">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C98" t="s" s="0">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="99" ht="47.25" customHeight="true">
       <c r="A99" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B99" t="s" s="0">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C99" t="s" s="0">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="100" ht="47.25" customHeight="true">
       <c r="A100" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B100" t="s" s="0">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C100" t="s" s="0">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="101" ht="47.25" customHeight="true">
       <c r="A101" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B101" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C101" t="s" s="0">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" ht="47.25" customHeight="true">
       <c r="A102" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B102" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C102" t="s" s="0">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" ht="47.25" customHeight="true">
       <c r="A103" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B103" t="s" s="0">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C103" t="s" s="0">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" ht="47.25" customHeight="true">
       <c r="A104" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B104" t="s" s="0">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C104" t="s" s="0">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" ht="47.25" customHeight="true">
       <c r="A105" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B105" t="s" s="0">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C105" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" ht="47.25" customHeight="true">
       <c r="A106" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B106" t="s" s="0">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C106" t="s" s="0">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" ht="47.25" customHeight="true">
       <c r="A107" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s" s="0">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s" s="0">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="108" ht="47.25" customHeight="true">
       <c r="A108" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B108" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C108" t="s" s="0">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="109" ht="47.25" customHeight="true">
       <c r="A109" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B109" t="s" s="0">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C109" t="s" s="0">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="110" ht="47.25" customHeight="true">
       <c r="A110" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B110" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C110" t="s" s="0">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="111" ht="47.25" customHeight="true">
       <c r="A111" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B111" t="s" s="0">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C111" t="s" s="0">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="112" ht="47.25" customHeight="true">
       <c r="A112" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B112" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C112" t="s" s="0">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="113" ht="47.25" customHeight="true">
       <c r="A113" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B113" t="s" s="0">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C113" t="s" s="0">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="114" ht="47.25" customHeight="true">
       <c r="A114" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B114" t="s" s="0">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C114" t="s" s="0">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" ht="47.25" customHeight="true">
       <c r="A115" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B115" t="s" s="0">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C115" t="s" s="0">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="116" ht="47.25" customHeight="true">
       <c r="A116" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B116" t="s" s="0">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C116" t="s" s="0">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="117" ht="47.25" customHeight="true">
       <c r="A117" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B117" t="s" s="0">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C117" t="s" s="0">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="118" ht="47.25" customHeight="true">
       <c r="A118" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B118" t="s" s="0">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C118" t="s" s="0">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" ht="47.25" customHeight="true">
       <c r="A119" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B119" t="s" s="0">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" t="s" s="0">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="120" ht="47.25" customHeight="true">
       <c r="A120" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s" s="0">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C120" t="s" s="0">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="121" ht="47.25" customHeight="true">
       <c r="A121" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B121" t="s" s="0">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C121" t="s" s="0">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="122" ht="47.25" customHeight="true">
       <c r="A122" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B122" t="s" s="0">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s" s="0">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="123" ht="47.25" customHeight="true">
       <c r="A123" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s" s="0">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C123" t="s" s="0">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="124" ht="47.25" customHeight="true">
       <c r="A124" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B124" t="s" s="0">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C124" t="s" s="0">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" ht="47.25" customHeight="true">
       <c r="A125" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B125" t="s" s="0">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C125" t="s" s="0">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" ht="47.25" customHeight="true">
       <c r="A126" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s" s="0">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C126" t="s" s="0">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="127" ht="47.25" customHeight="true">
       <c r="A127" t="s" s="0">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B127" t="s" s="0">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C127" t="s" s="0">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="128" ht="15.0" customHeight="true"/>
